--- a/Baltimore vs Mountain Home - Tract.xlsx
+++ b/Baltimore vs Mountain Home - Tract.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ostor\Documents\OneDrive\Desktop\Homework\Business Analytics\Mini Project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239771F0-130A-4C57-BADD-98423BB0B71B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978D4F3D-384D-432A-954B-7216B7B1240B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10368" yWindow="2076" windowWidth="17280" windowHeight="9072" xr2:uid="{3F5B1A0A-7258-4052-912B-321A7144898E}"/>
+    <workbookView xWindow="-9996" yWindow="1500" windowWidth="17280" windowHeight="9072" xr2:uid="{3F5B1A0A-7258-4052-912B-321A7144898E}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs, Comparison" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="40" r:id="rId4"/>
+    <pivotCache cacheId="42" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -143,7 +143,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -813,6 +813,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Employment Rate - Tract Level</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2377,7 +2402,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DDBA65C3-8F2F-486A-900A-0F276DF4D383}" name="PivotTable5" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DDBA65C3-8F2F-486A-900A-0F276DF4D383}" name="PivotTable5" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" showAll="0">
@@ -2748,10 +2773,10 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
@@ -2759,7 +2784,7 @@
     <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -2771,7 +2796,7 @@
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2782,7 +2807,7 @@
         <v>28414</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2793,7 +2818,7 @@
         <v>37232</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2801,7 +2826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2809,7 +2834,7 @@
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2831,7 +2856,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
@@ -2839,7 +2864,7 @@
     <col min="4" max="4" width="50.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -2853,7 +2878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2867,7 +2892,7 @@
         <v>37232</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -2881,7 +2906,7 @@
         <v>28414</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -2908,9 +2933,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -2960,7 +2985,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3010,7 +3035,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>15</v>
       </c>
